--- a/organisms.xlsx
+++ b/organisms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boris/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mybioticx submmision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70222115-9482-7041-A1CA-95989A4E83C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68718F19-6F94-4B9F-8766-3947D35B0AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{AC1531C5-3C96-2C4C-BD3D-40A07962484B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC1531C5-3C96-2C4C-BD3D-40A07962484B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2105,16 +2105,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220F080E-3E8C-3341-97BF-49EB868347BD}">
   <dimension ref="A1:B572"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
+      <selection activeCell="B568" sqref="B568"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>572</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>501</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>502</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>503</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>504</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>505</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>506</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>507</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>508</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>509</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>510</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>511</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>512</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>513</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>514</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>515</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>516</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>517</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>518</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>519</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>520</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>521</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>522</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>523</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>524</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>525</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>526</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>527</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>528</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>529</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>530</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>531</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>532</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>533</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>534</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>535</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>536</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>537</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>538</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>539</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>540</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>541</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>542</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>543</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>544</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>545</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>546</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>547</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>548</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>549</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>550</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>551</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>552</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>553</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>554</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>555</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>556</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>557</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>558</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>559</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>560</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>561</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>562</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>563</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>564</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>565</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>566</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>567</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>568</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>569</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>570</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>571</v>
       </c>
